--- a/Redes ipv4.xlsx
+++ b/Redes ipv4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19FBFDE-C457-4AD9-9B02-7B178CA85A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A555F1C-54F8-4300-9D9E-87071CA3D9F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3240" yWindow="1740" windowWidth="21600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="202">
   <si>
     <t>EJEMPLO</t>
   </si>
@@ -473,6 +473,216 @@
   </si>
   <si>
     <t>198.180.100.1</t>
+  </si>
+  <si>
+    <t>TELEFONOS</t>
+  </si>
+  <si>
+    <t>phone 1</t>
+  </si>
+  <si>
+    <t>phone 2</t>
+  </si>
+  <si>
+    <t>phone 3</t>
+  </si>
+  <si>
+    <t>phone 4</t>
+  </si>
+  <si>
+    <t>phone 5</t>
+  </si>
+  <si>
+    <t>phone 6</t>
+  </si>
+  <si>
+    <t>phone 7</t>
+  </si>
+  <si>
+    <t>phone 8</t>
+  </si>
+  <si>
+    <t>phone 9</t>
+  </si>
+  <si>
+    <t>phone 10</t>
+  </si>
+  <si>
+    <t>phone 11</t>
+  </si>
+  <si>
+    <t>phone 12</t>
+  </si>
+  <si>
+    <t>Empresa A</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>Ip global</t>
+  </si>
+  <si>
+    <t>194.168.10.4</t>
+  </si>
+  <si>
+    <t>194.168.10.8</t>
+  </si>
+  <si>
+    <t>194.168.10.9</t>
+  </si>
+  <si>
+    <t>194.168.10.5</t>
+  </si>
+  <si>
+    <t>194.168.10.1</t>
+  </si>
+  <si>
+    <t>194.168.10.13</t>
+  </si>
+  <si>
+    <t>194.168.10.7</t>
+  </si>
+  <si>
+    <t>194.168.10.2</t>
+  </si>
+  <si>
+    <t>194.168.10.3</t>
+  </si>
+  <si>
+    <t>194.168.10.11</t>
+  </si>
+  <si>
+    <t>194.168.10.6</t>
+  </si>
+  <si>
+    <t>194.168.10.10</t>
+  </si>
+  <si>
+    <t>194.168.10.12</t>
+  </si>
+  <si>
+    <t>194.168.10.0</t>
+  </si>
+  <si>
+    <t># telefono</t>
+  </si>
+  <si>
+    <t>Prefijo</t>
+  </si>
+  <si>
+    <t>Empresa B</t>
+  </si>
+  <si>
+    <t>phone 13</t>
+  </si>
+  <si>
+    <t>phone 14</t>
+  </si>
+  <si>
+    <t>phone 15</t>
+  </si>
+  <si>
+    <t>phone 16</t>
+  </si>
+  <si>
+    <t>phone 17</t>
+  </si>
+  <si>
+    <t>phone 18</t>
+  </si>
+  <si>
+    <t>phone 19</t>
+  </si>
+  <si>
+    <t>phone 20</t>
+  </si>
+  <si>
+    <t>phone 21</t>
+  </si>
+  <si>
+    <t>200.168.10.3</t>
+  </si>
+  <si>
+    <t>200.168.10.0</t>
+  </si>
+  <si>
+    <t>200.168.10.1</t>
+  </si>
+  <si>
+    <t>200.168.10.9</t>
+  </si>
+  <si>
+    <t>200.168.10.5</t>
+  </si>
+  <si>
+    <t>200.168.10.2</t>
+  </si>
+  <si>
+    <t>200.168.10.7</t>
+  </si>
+  <si>
+    <t>200.168.10.6</t>
+  </si>
+  <si>
+    <t>200.168.10.4</t>
+  </si>
+  <si>
+    <t>200.168.10.8</t>
+  </si>
+  <si>
+    <t>200.168.10.10</t>
+  </si>
+  <si>
+    <t>IoT</t>
+  </si>
+  <si>
+    <t>Ventilador</t>
+  </si>
+  <si>
+    <t>Monitor de Temp</t>
+  </si>
+  <si>
+    <t>Thermostat</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Wireless0</t>
+  </si>
+  <si>
+    <t>192.168.25.103</t>
+  </si>
+  <si>
+    <t>192.168.25.106</t>
+  </si>
+  <si>
+    <t>192.168.25.104</t>
+  </si>
+  <si>
+    <t>192.168.25.100</t>
+  </si>
+  <si>
+    <t>192.168.25.1</t>
+  </si>
+  <si>
+    <t>HomeGateway0</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>192.168.1.54</t>
+  </si>
+  <si>
+    <t>SSID</t>
+  </si>
+  <si>
+    <t>Red2</t>
   </si>
 </sst>
 </file>
@@ -542,7 +752,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,8 +795,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -609,11 +831,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -639,6 +874,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,20 +1167,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U29"/>
+  <dimension ref="A2:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="8" max="9" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
     <col min="15" max="15" width="12.7109375" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -1907,7 +2158,689 @@
         <v>127</v>
       </c>
     </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="M32" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="N32" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O32" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="26"/>
+      <c r="C33" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="2">
+        <v>505</v>
+      </c>
+      <c r="E33" s="2">
+        <v>501</v>
+      </c>
+      <c r="F33" s="2">
+        <v>508</v>
+      </c>
+      <c r="G33" s="2">
+        <v>511</v>
+      </c>
+      <c r="H33" s="2">
+        <v>503</v>
+      </c>
+      <c r="I33" s="2">
+        <v>502</v>
+      </c>
+      <c r="J33" s="2">
+        <v>504</v>
+      </c>
+      <c r="K33" s="2">
+        <v>510</v>
+      </c>
+      <c r="L33" s="2">
+        <v>506</v>
+      </c>
+      <c r="M33" s="2">
+        <v>500</v>
+      </c>
+      <c r="N33" s="2">
+        <v>507</v>
+      </c>
+      <c r="O33" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="26"/>
+      <c r="C34" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="O34" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="26"/>
+      <c r="C35" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="J35" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="O35" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="26"/>
+      <c r="C36" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="J36" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="O36" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="26"/>
+      <c r="C37" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="M37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="O37" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="26"/>
+      <c r="C38" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J38" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="M38" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="N38" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="O38" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J40" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L40" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="26"/>
+      <c r="C41" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="24">
+        <v>603</v>
+      </c>
+      <c r="E41" s="2">
+        <v>602</v>
+      </c>
+      <c r="F41" s="2">
+        <v>606</v>
+      </c>
+      <c r="G41" s="2">
+        <v>601</v>
+      </c>
+      <c r="H41" s="2">
+        <v>600</v>
+      </c>
+      <c r="I41" s="2">
+        <v>607</v>
+      </c>
+      <c r="J41" s="2">
+        <v>608</v>
+      </c>
+      <c r="K41" s="2">
+        <v>605</v>
+      </c>
+      <c r="L41" s="2">
+        <v>604</v>
+      </c>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="26"/>
+      <c r="C42" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="H42" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K42" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L42" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="26"/>
+      <c r="C43" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="H43" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="J43" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="L43" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="26"/>
+      <c r="C44" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="K44" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="L44" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="26"/>
+      <c r="C45" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="H45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="J45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="K45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="26"/>
+      <c r="C46" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="L46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G49" s="31"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="B50" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="G50" s="32"/>
+      <c r="H50" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="I50" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="B51" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G51" s="32"/>
+      <c r="H51" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="I51" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="B52" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="32"/>
+      <c r="H52" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="I52" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="B53" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="B54" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B40:B46"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
